--- a/Data/t16.1.xlsx
+++ b/Data/t16.1.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abastecidos por rede geral de água</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com energia elétrica fornecida por rede geral</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">

--- a/Data/t16.1.xlsx
+++ b/Data/t16.1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>97.59999999999999</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D9">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D10">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +567,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D11">
-        <v>85.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="12">
@@ -587,16 +587,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>85.7</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -612,7 +612,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D13">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D14">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D15">
-        <v>85.5</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="16">
@@ -667,16 +667,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D16">
-        <v>66.8</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="17">
@@ -687,16 +687,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>66.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="18">
@@ -707,16 +707,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>66.7</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -727,7 +727,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>82.7</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="20">
@@ -747,7 +747,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>82.90000000000001</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D22">
-        <v>84.3</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>86</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +827,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D24">
-        <v>99.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -847,16 +847,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>99.5</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="26">
@@ -867,16 +867,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D26">
-        <v>99.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -887,16 +887,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D27">
-        <v>99.5</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D28">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="29">
@@ -927,16 +927,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D29">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>98.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +967,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D31">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="32">
@@ -987,16 +987,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D32">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1007,27 +1007,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D33">
-        <v>98.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1036,18 +1036,18 @@
         </is>
       </c>
       <c r="D34">
-        <v>73</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1056,18 +1056,18 @@
         </is>
       </c>
       <c r="D35">
-        <v>73.09999999999999</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1076,18 +1076,18 @@
         </is>
       </c>
       <c r="D36">
-        <v>71.5</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1096,18 +1096,18 @@
         </is>
       </c>
       <c r="D37">
-        <v>72.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1116,27 +1116,27 @@
         </is>
       </c>
       <c r="D38">
-        <v>71</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>94.5</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="40">
@@ -1147,16 +1147,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D40">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -1167,16 +1167,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D41">
-        <v>94.8</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1187,16 +1187,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D42">
-        <v>95.59999999999999</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="43">
@@ -1207,16 +1207,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D43">
-        <v>79.7</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1227,16 +1227,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D44">
-        <v>80.09999999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
@@ -1247,16 +1247,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D46">
-        <v>79.90000000000001</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="47">
@@ -1287,16 +1287,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D47">
-        <v>80.3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -1307,16 +1307,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D48">
-        <v>45.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="49">
@@ -1327,16 +1327,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D49">
-        <v>45.9</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1347,16 +1347,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D50">
-        <v>45.4</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>67.40000000000001</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="52">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>69.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>69.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>70.7</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="56">
@@ -1467,16 +1467,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D56">
-        <v>99.5</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D57">
-        <v>99.40000000000001</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="58">
@@ -1507,16 +1507,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D58">
-        <v>99.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="59">
@@ -1527,16 +1527,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D59">
-        <v>99.40000000000001</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="60">
@@ -1547,16 +1547,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D60">
-        <v>99.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1567,16 +1567,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D61">
-        <v>97</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1587,16 +1587,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D62">
-        <v>96.7</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="63">
@@ -1607,16 +1607,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D63">
-        <v>96.3</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="64">
@@ -1627,16 +1627,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D64">
-        <v>96.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -1647,27 +1647,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D65">
-        <v>97.3</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1676,18 +1676,18 @@
         </is>
       </c>
       <c r="D66">
-        <v>72.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1696,18 +1696,18 @@
         </is>
       </c>
       <c r="D67">
-        <v>71.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1716,18 +1716,18 @@
         </is>
       </c>
       <c r="D68">
-        <v>68.59999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1736,18 +1736,18 @@
         </is>
       </c>
       <c r="D69">
-        <v>64.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1756,147 +1756,147 @@
         </is>
       </c>
       <c r="D70">
-        <v>61.8</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D71">
-        <v>97.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D72">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D73">
-        <v>96</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D74">
-        <v>98.2</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D75">
-        <v>85.90000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D76">
-        <v>85.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D77">
-        <v>85.90000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="78">
@@ -1907,16 +1907,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D78">
-        <v>84.7</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="79">
@@ -1927,16 +1927,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D79">
-        <v>87</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="80">
@@ -1947,16 +1947,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D80">
-        <v>56.1</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1967,16 +1967,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D81">
-        <v>53.9</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D82">
-        <v>53.5</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="83">
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D83">
-        <v>68.3</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>70.09999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="85">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>81.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>85.40000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>84.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="88">
@@ -2107,16 +2107,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D88">
-        <v>99.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2127,16 +2127,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D89">
-        <v>99.8</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -2147,16 +2147,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D90">
-        <v>99.3</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2167,16 +2167,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D91">
-        <v>99.3</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="92">
@@ -2187,16 +2187,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D92">
-        <v>99.5</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="93">
@@ -2207,16 +2207,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D93">
-        <v>98.40000000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94">
@@ -2227,16 +2227,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D94">
-        <v>96.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95">
@@ -2247,16 +2247,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D95">
-        <v>98.09999999999999</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="96">
@@ -2267,16 +2267,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D96">
-        <v>97.59999999999999</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="97">
@@ -2287,16 +2287,376 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>70.09999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>81.59999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D97">
+      <c r="D114">
         <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>97.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t16.1.xlsx
+++ b/Data/t16.1.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -387,16 +463,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>66.7</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="3">
@@ -407,16 +483,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>66.5</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="4">
@@ -427,16 +503,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>65</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="5">
@@ -447,16 +523,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>64.8</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +543,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>63.8</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +563,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>62.3</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -507,16 +583,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>97.59999999999999</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="9">
@@ -527,16 +603,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>97.5</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -547,16 +623,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>97.7</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +643,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>98.2</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>84.3</v>
       </c>
     </row>
     <row r="12">
@@ -587,16 +663,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>98.09999999999999</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -607,16 +683,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>85.8</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -627,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>85.7</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -647,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>85.8</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>97.5</v>
       </c>
     </row>
     <row r="16">
@@ -667,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>85.5</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>97.7</v>
       </c>
     </row>
     <row r="17">
@@ -687,16 +763,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>85.5</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>98.2</v>
       </c>
     </row>
     <row r="18">
@@ -707,16 +783,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>85.90000000000001</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -727,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>66.8</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="20">
@@ -747,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>66.5</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="21">
@@ -767,16 +843,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>66.7</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="22">
@@ -787,16 +863,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>82.7</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="23">
@@ -807,16 +883,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>82.90000000000001</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +903,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>83</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -847,16 +923,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>84.3</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>66.8</v>
       </c>
     </row>
     <row r="26">
@@ -867,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>86</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>66.5</v>
       </c>
     </row>
     <row r="27">
@@ -887,16 +963,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>86.09999999999999</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>99.5</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -927,16 +1003,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>99.5</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>99.5</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>69.89999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -967,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>99.5</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -987,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>99.40000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>98.3</v>
       </c>
     </row>
     <row r="33">
@@ -1007,16 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>99.40000000000001</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>98.2</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>98.40000000000001</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1052,10 +1128,10 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D35">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>98.3</v>
       </c>
     </row>
@@ -1072,10 +1148,10 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D36">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>98.2</v>
       </c>
     </row>
@@ -1087,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>98.09999999999999</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="38">
@@ -1107,16 +1183,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>98.3</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>66.5</v>
       </c>
     </row>
     <row r="39">
@@ -1127,22 +1203,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>98.2</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1152,17 +1228,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>73</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>64.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1172,17 +1248,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>73.09999999999999</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>63.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1192,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>71.5</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>62.3</v>
       </c>
     </row>
     <row r="43">
@@ -1207,16 +1283,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>72.40000000000001</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>79.7</v>
       </c>
     </row>
     <row r="44">
@@ -1227,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>71</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1247,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>70.40000000000001</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -1267,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>94.5</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1287,16 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>94</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>80.3</v>
       </c>
     </row>
     <row r="48">
@@ -1307,16 +1383,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>94.8</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1327,16 +1403,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>95.59999999999999</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1347,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>95.40000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1367,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>79.7</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="52">
@@ -1387,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>80.09999999999999</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="53">
@@ -1407,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>80</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -1427,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>79.90000000000001</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="55">
@@ -1447,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>80.3</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>94.5</v>
       </c>
     </row>
     <row r="56">
@@ -1467,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>81.09999999999999</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="57">
@@ -1487,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>45.9</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>94.8</v>
       </c>
     </row>
     <row r="58">
@@ -1507,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>45.9</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1527,16 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>45.4</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1547,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>67.40000000000001</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="61">
@@ -1567,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>69.40000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1587,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>69.5</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="63">
@@ -1607,16 +1683,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>70.7</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1627,16 +1703,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>75</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1647,16 +1723,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>75.8</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1667,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>99.5</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>45.9</v>
       </c>
     </row>
     <row r="67">
@@ -1687,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>99.40000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>45.9</v>
       </c>
     </row>
     <row r="68">
@@ -1707,16 +1783,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>99.3</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>45.4</v>
       </c>
     </row>
     <row r="69">
@@ -1727,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>99.40000000000001</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="70">
@@ -1747,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>99.40000000000001</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>50.2</v>
       </c>
     </row>
     <row r="71">
@@ -1767,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>99.40000000000001</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>50.8</v>
       </c>
     </row>
     <row r="72">
@@ -1792,10 +1868,10 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D72">
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1812,10 +1888,10 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D73">
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>96.7</v>
       </c>
     </row>
@@ -1832,10 +1908,10 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D74">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>96.3</v>
       </c>
     </row>
@@ -1852,10 +1928,10 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D75">
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>96.3</v>
       </c>
     </row>
@@ -1872,10 +1948,10 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D76">
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>97.3</v>
       </c>
     </row>
@@ -1892,17 +1968,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D77">
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>97.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1912,17 +1988,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>72.8</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1932,17 +2008,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>71.3</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1952,17 +2028,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D80">
-        <v>68.59999999999999</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1972,17 +2048,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D81">
-        <v>64.09999999999999</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1992,17 +2068,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D82">
-        <v>61.8</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2012,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D83">
-        <v>64.40000000000001</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2027,16 +2103,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D84">
-        <v>97.3</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -2047,16 +2123,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D85">
-        <v>97.09999999999999</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2067,16 +2143,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>96</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -2087,16 +2163,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>98.2</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="88">
@@ -2107,16 +2183,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>97.40000000000001</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -2132,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>85.90000000000001</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="90">
@@ -2147,16 +2223,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>85.59999999999999</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="91">
@@ -2167,16 +2243,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D91">
-        <v>85.90000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2187,16 +2263,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D92">
-        <v>84.7</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -2207,16 +2283,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D93">
-        <v>87</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2227,16 +2303,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D94">
-        <v>87.5</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="95">
@@ -2247,16 +2323,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D95">
-        <v>56.1</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>89.8</v>
       </c>
     </row>
     <row r="96">
@@ -2267,16 +2343,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D96">
-        <v>53.9</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>97.3</v>
       </c>
     </row>
     <row r="97">
@@ -2287,16 +2363,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D97">
-        <v>53.5</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2307,16 +2383,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D98">
-        <v>68.3</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="99">
@@ -2327,16 +2403,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D99">
-        <v>70.09999999999999</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>98.2</v>
       </c>
     </row>
     <row r="100">
@@ -2347,16 +2423,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D100">
-        <v>81.59999999999999</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2367,16 +2443,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D101">
-        <v>85.40000000000001</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2387,16 +2463,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D102">
-        <v>84.8</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>99.8</v>
       </c>
     </row>
     <row r="103">
@@ -2407,16 +2483,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D103">
-        <v>89.8</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="104">
@@ -2432,11 +2508,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D104">
-        <v>99.90000000000001</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>99.3</v>
       </c>
     </row>
     <row r="105">
@@ -2452,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D105">
-        <v>99.8</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="106">
@@ -2472,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D106">
-        <v>99.3</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -2487,16 +2563,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D107">
-        <v>99.3</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>56.1</v>
       </c>
     </row>
     <row r="108">
@@ -2507,16 +2583,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D108">
-        <v>99.5</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>53.9</v>
       </c>
     </row>
     <row r="109">
@@ -2527,16 +2603,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D109">
-        <v>99.59999999999999</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>53.5</v>
       </c>
     </row>
     <row r="110">
@@ -2547,16 +2623,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D110">
-        <v>98.40000000000001</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>47.9</v>
       </c>
     </row>
     <row r="111">
@@ -2567,16 +2643,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D111">
-        <v>96.5</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="112">
@@ -2587,16 +2663,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D112">
-        <v>98.09999999999999</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>49.6</v>
       </c>
     </row>
     <row r="113">
@@ -2612,11 +2688,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D113">
-        <v>97.59999999999999</v>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2632,11 +2708,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="D114">
-        <v>98.40000000000001</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>96.5</v>
       </c>
     </row>
     <row r="115">
@@ -2652,14 +2728,194 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="D115">
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>97.59999999999999</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/t16.1.xlsx
+++ b/Data/t16.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,16 +583,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82.7</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>84.3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>86</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -703,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>97.59999999999999</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -723,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>97.5</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="19">
@@ -803,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>99.5</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="20">
@@ -823,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>99.5</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -843,16 +843,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="22">
@@ -868,7 +868,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="25">
@@ -923,16 +923,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="26">
@@ -943,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66.5</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -963,16 +963,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66.7</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -983,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69.5</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69.89999999999999</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1043,16 +1043,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>98.40000000000001</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1063,16 +1063,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>98.3</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1083,16 +1083,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>98.2</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="34">
@@ -1103,16 +1103,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>98.09999999999999</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="35">
@@ -1123,16 +1123,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>98.3</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>66.7</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="38">
@@ -1183,16 +1183,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>66.5</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="39">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1223,16 +1223,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>64.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="41">
@@ -1243,16 +1243,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>63.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="42">
@@ -1263,27 +1263,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>62.3</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1292,18 +1292,18 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>79.7</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1312,18 +1312,18 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>80.09999999999999</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1332,18 +1332,18 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>80</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1352,18 +1352,18 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>79.90000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1372,18 +1372,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>80.3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1392,27 +1392,27 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>81.09999999999999</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>67.40000000000001</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="50">
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>69.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1443,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>69.5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1463,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>70.7</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>75</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="54">
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>75.8</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>94.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -1543,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94.8</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="58">
@@ -1583,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>95.59999999999999</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1603,16 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>95.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1623,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>99.5</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>99.40000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>99.3</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="63">
@@ -1683,16 +1683,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>99.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1703,16 +1703,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>99.40000000000001</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="65">
@@ -1723,16 +1723,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>99.40000000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>45.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="67">
@@ -1763,16 +1763,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>45.9</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>45.4</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1803,16 +1803,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>47</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -1823,16 +1823,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="71">
@@ -1843,16 +1843,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>50.8</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1863,16 +1863,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>97</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="73">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>96.7</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1903,16 +1903,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>96.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>96.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1943,16 +1943,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="77">
@@ -1963,16 +1963,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>97.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="78">
@@ -1983,16 +1983,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>73</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="79">
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>73.09999999999999</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="80">
@@ -2023,16 +2023,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>71.5</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="81">
@@ -2043,16 +2043,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>72.40000000000001</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="82">
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>71</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="83">
@@ -2083,27 +2083,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>70.40000000000001</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2112,18 +2112,18 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>85.90000000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2132,18 +2132,18 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>85.59999999999999</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2152,18 +2152,18 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>85.90000000000001</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2172,18 +2172,18 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>84.7</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2192,18 +2192,18 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>87</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Abastecidos por rede geral de água</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2212,167 +2212,167 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87.5</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>68.3</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>70.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>81.59999999999999</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>85.40000000000001</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>84.8</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>89.8</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>97.3</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>97.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2383,16 +2383,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>96</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2403,16 +2403,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>98.2</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="100">
@@ -2423,16 +2423,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>97.40000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
@@ -2443,16 +2443,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>99.90000000000001</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="102">
@@ -2463,16 +2463,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>99.8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103">
@@ -2483,16 +2483,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>99.3</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2503,16 +2503,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Abastecidos por rede geral de água</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>99.3</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -2523,16 +2523,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>99.5</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="106">
@@ -2543,16 +2543,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Com energia elétrica fornecida por rede geral</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>99.59999999999999</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
@@ -2563,16 +2563,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>56.1</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>53.9</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="109">
@@ -2603,16 +2603,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>53.5</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2623,16 +2623,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>47.9</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="111">
@@ -2643,16 +2643,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Atendidos por serviço de coleta de lixo (direta ou indireta)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>51</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="112">
@@ -2663,16 +2663,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>49.6</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="113">
@@ -2683,16 +2683,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>98.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2703,16 +2703,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>96.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
@@ -2723,16 +2723,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="116">
@@ -2743,16 +2743,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com banheiro ou sanitário de uso exclusivo dos moradores</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>98.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -2783,16 +2783,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>97.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2803,16 +2803,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>72.8</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="120">
@@ -2823,16 +2823,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71.3</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="121">
@@ -2843,16 +2843,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>68.59999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="122">
@@ -2863,16 +2863,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>64.09999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="123">
@@ -2883,16 +2883,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proporção (%) de domicílios particulares permanentes</t>
+          <t>Com energia elétrica fornecida por rede geral</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>61.8</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="124">
@@ -2903,16 +2903,436 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>Com energia elétrica fornecida por rede geral</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Com esgotamento por rede coletora de esgoto ou pluvial</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Com gás de botijão, ou encanado, como combustível para preparos de alimentos</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Proporção (%) de domicílios particulares permanentes</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>64.40000000000001</v>
+      <c r="D144" t="n">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Proporção (%) de domicílios particulares permanentes</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>60.7</v>
       </c>
     </row>
   </sheetData>
